--- a/biology/Microbiologie/Gram_négatif/Gram_négatif.xlsx
+++ b/biology/Microbiologie/Gram_négatif/Gram_négatif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gram_n%C3%A9gatif</t>
+          <t>Gram_négatif</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactéries à Gram négatif sont mises en évidence par une technique de coloration appelée coloration de Gram. Les bactéries à Gram négatif apparaissent alors roses au microscope. La technique de coloration révèle des caractéristiques membranaires et de paroi de la bactérie. Néanmoins, il ne s'agit pas d'un facteur de classement phylogénétique : en effet, les groupes Gram + et Gram − ne sont ni l'un ni l'autre monophylétiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gram_n%C3%A9gatif</t>
+          <t>Gram_négatif</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe de coloration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après fixation des bactéries sur une lame (deux méthodes possibles : fixation à l'éthanol à 90° (5 minutes) ou par passage de la lame dans la flamme, dite frottis) :
 la lame est plongée dans un premier colorant : le violet de gentiane (1 minute). Le violet de gentiane, toxique et cancérigène, est un colorant puissant. Il va traverser les parois et membranes des bactéries et se fixer dans leurs cytoplasmes. Ainsi à cette étape toutes les cellules sont colorées en violet ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gram_n%C3%A9gatif</t>
+          <t>Gram_négatif</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Caractéristiques des bactéries à Gram négatif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactéries Gram négatif ont (sauf exception) une structure bimembranée qui s'organise en trois grandes parties, soit, de l'extérieur vers l'intérieur :
 la membrane externe ;
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gram_n%C3%A9gatif</t>
+          <t>Gram_négatif</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Alcaligenaceae :
 genre Bordetella - exemple : Bordetella pertussis.
